--- a/Original_Data/CustomFormatting.xlsx
+++ b/Original_Data/CustomFormatting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Documents\GitHub_Excel\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFC87F2C-6B53-45C4-B7B2-B4A33D73CE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8061FF-36B0-4C65-8FA9-87632CEBA364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{27E4171C-0AAB-4F46-82E6-7837F22D7C86}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{27E4171C-0AAB-4F46-82E6-7837F22D7C86}"/>
   </bookViews>
   <sheets>
     <sheet name="Color Coding" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="279">
   <si>
     <t>Numbers</t>
   </si>
@@ -868,6 +868,9 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Balram</t>
   </si>
 </sst>
 </file>
@@ -1271,10 +1274,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8154E53-C43D-4A83-A61E-1BE5CD89477A}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1416,6 +1419,17 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1426,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7AD3732-EFF6-41A8-A552-5D0B2BC274B8}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1457,193 +1471,181 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Burundi</v>
+      <c r="A2" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="B2" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A2,Country_Codes[Country],0))</f>
-        <v>257</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A2,Country_Codes[Country],0))</f>
+        <v>590</v>
       </c>
       <c r="C2" s="5">
         <f t="shared" ref="C2:C13" ca="1" si="0">RANDBETWEEN(1000000000,(10000000000)-1)</f>
-        <v>5219890523</v>
+        <v>2959366854</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Saint Lucia</v>
-      </c>
-      <c r="B3" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A3,Country_Codes[Country],0))</f>
-        <v>1-758</v>
+      <c r="A3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" s="5">
+        <f>INDEX(Country_Codes[Country Code],MATCH(A3,Country_Codes[Country],0))</f>
+        <v>231</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1503530012</v>
+        <v>3433373024</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Thailand</v>
+      <c r="A4" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="B4" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A4,Country_Codes[Country],0))</f>
-        <v>66</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A4,Country_Codes[Country],0))</f>
+        <v>386</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3051970978</v>
+        <v>6832852815</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Rwanda</v>
+      <c r="A5" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="B5" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A5,Country_Codes[Country],0))</f>
-        <v>250</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A5,Country_Codes[Country],0))</f>
+        <v>358</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5082992447</v>
+        <v>1683302183</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Sri Lanka</v>
+      <c r="A6" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="B6" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A6,Country_Codes[Country],0))</f>
-        <v>94</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A6,Country_Codes[Country],0))</f>
+        <v>258</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8739936564</v>
+        <v>6283152051</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Moldova</v>
+      <c r="A7" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="B7" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A7,Country_Codes[Country],0))</f>
-        <v>373</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A7,Country_Codes[Country],0))</f>
+        <v>975</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6677256698</v>
+        <v>4228390711</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Slovenia</v>
-      </c>
-      <c r="B8" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A8,Country_Codes[Country],0))</f>
-        <v>386</v>
+      <c r="A8" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B8" s="5" t="str">
+        <f>INDEX(Country_Codes[Country Code],MATCH(A8,Country_Codes[Country],0))</f>
+        <v>1-869</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1502206433</v>
+        <v>9848739422</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Nigeria</v>
+      <c r="A9" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B9" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A9,Country_Codes[Country],0))</f>
-        <v>234</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A9,Country_Codes[Country],0))</f>
+        <v>599</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1551775861</v>
+        <v>7118464645</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>New Zealand</v>
+      <c r="A10" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="B10" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A10,Country_Codes[Country],0))</f>
-        <v>64</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A10,Country_Codes[Country],0))</f>
+        <v>595</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6482733037</v>
+        <v>1467748396</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Kiribati</v>
+      <c r="A11" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="B11" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A11,Country_Codes[Country],0))</f>
-        <v>686</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A11,Country_Codes[Country],0))</f>
+        <v>246</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3638097391</v>
+        <v>4792427139</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Cameroon</v>
+      <c r="A12" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="B12" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A12,Country_Codes[Country],0))</f>
-        <v>237</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A12,Country_Codes[Country],0))</f>
+        <v>32</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8367807526</v>
+        <v>4804938479</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="str">
-        <f ca="1">INDEX(Country_Codes[Country],RANDBETWEEN(2,241))</f>
-        <v>Eritrea</v>
+      <c r="A13" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="B13" s="5">
-        <f ca="1">INDEX(Country_Codes[Country Code],MATCH(A13,Country_Codes[Country],0))</f>
-        <v>291</v>
+        <f>INDEX(Country_Codes[Country Code],MATCH(A13,Country_Codes[Country],0))</f>
+        <v>95</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>7132047373</v>
+        <v>1970928785</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>

--- a/Original_Data/CustomFormatting.xlsx
+++ b/Original_Data/CustomFormatting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanch\Documents\GitHub_Excel\Original_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D8061FF-36B0-4C65-8FA9-87632CEBA364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D283CCD9-1C1C-4750-8636-FAD6184D0F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{27E4171C-0AAB-4F46-82E6-7837F22D7C86}"/>
   </bookViews>
@@ -1441,7 +1441,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,8 +1479,7 @@
         <v>590</v>
       </c>
       <c r="C2" s="5">
-        <f t="shared" ref="C2:C13" ca="1" si="0">RANDBETWEEN(1000000000,(10000000000)-1)</f>
-        <v>2959366854</v>
+        <v>4759462429</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -1494,8 +1493,7 @@
         <v>231</v>
       </c>
       <c r="C3" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>3433373024</v>
+        <v>3111843265</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -1509,8 +1507,7 @@
         <v>386</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6832852815</v>
+        <v>3007723039</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -1524,8 +1521,7 @@
         <v>358</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1683302183</v>
+        <v>1530049582</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1539,8 +1535,7 @@
         <v>258</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>6283152051</v>
+        <v>9584299252</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1554,8 +1549,7 @@
         <v>975</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4228390711</v>
+        <v>7720819933</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1569,8 +1563,7 @@
         <v>1-869</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>9848739422</v>
+        <v>3447612857</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1584,8 +1577,7 @@
         <v>599</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>7118464645</v>
+        <v>9486032302</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -1599,8 +1591,7 @@
         <v>595</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1467748396</v>
+        <v>8062846356</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -1614,8 +1605,7 @@
         <v>246</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4792427139</v>
+        <v>2279190723</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1629,8 +1619,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>4804938479</v>
+        <v>8371665677</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1644,8 +1633,7 @@
         <v>95</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1970928785</v>
+        <v>5265926213</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
